--- a/biology/Zoologie/Black_baldy/Black_baldy.xlsx
+++ b/biology/Zoologie/Black_baldy/Black_baldy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La black baldy est une race bovine récente. Elle porte aussi le nom de black whiteface. (noire à tête blanche)
@@ -512,9 +524,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est issue du métissage entre vaches hereford et taureaux black angus. Par un effet hétérosis, les animaux sont plus vigoureux que ceux des races mère et père[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est issue du métissage entre vaches hereford et taureaux black angus. Par un effet hétérosis, les animaux sont plus vigoureux que ceux des races mère et père.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle porte une robe noire, avec la tête et les pattes blanches. Le mufle est noir et les cornes sont absentes.
 </t>
@@ -574,7 +590,9 @@
           <t>Aptitudes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une race bouchère créée pour éliminer les problèmes de dystocie existant sur la race hereford. L'apport de l'angus induit des veaux plus petits, favorisant la naissance. Cette race a aussi apporté l'absence de cornes utile pour éviter les blessures entre animaux et envers les vachers.
 </t>
